--- a/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -1,32 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Reach Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assessment Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority Actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority Life Stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function,Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,17 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -112,10 +173,6 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -141,15 +198,12 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -175,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,199 +405,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Reach Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Assessment Unit</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Basin</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Priority Actions</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Reach Rank</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Priority Life Stages</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Action Categories</t>
-        </is>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>White River Lower 08</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Lower White River</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Wenatchee</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Maintain Reach Function</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-        </is>
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Twisp River Upper 02</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Twisp River Upper 03</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Maintain Reach Function,Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Twisp River Upper 01</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Upper Twisp River</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Prevent Limiting Factors</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Spawning and Incubation</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Land Protection (e.g. conservation easement and/or property acquisition)</t>
-        </is>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,6 +35,78 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function,Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
@@ -44,43 +116,40 @@
     <t xml:space="preserve">Wenatchee</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintain Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain Reach Function,Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
   </si>
 </sst>
 </file>
@@ -463,68 +532,409 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,118 +35,130 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function,Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Holding and Maturation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain Reach Function,Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -532,203 +544,203 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -739,91 +751,91 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -831,22 +843,22 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -854,64 +866,68 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17"/>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18"/>
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -919,22 +935,87 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
+      <c r="G23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_BULL_TROUT_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -56,6 +56,24 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintain Reach Function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
@@ -65,12 +83,6 @@
     <t xml:space="preserve">Entiat</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Lake 03</t>
   </si>
   <si>
@@ -86,79 +98,109 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Headwaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maintain Reach Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Headwaters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,BT Natal Rearing,Adult Migration</t>
+    <t xml:space="preserve">Chiwaukum Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiwaukum Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Lake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Mad River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adult Migration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mad River Upper 04</t>
   </si>
   <si>
     <t xml:space="preserve">Twisp River Upper 01</t>
@@ -547,30 +589,30 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -582,18 +624,18 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -605,18 +647,18 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -625,21 +667,21 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -648,21 +690,21 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -671,21 +713,21 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -694,21 +736,21 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -717,30 +759,30 @@
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -748,22 +790,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -771,22 +813,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -794,25 +836,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -823,19 +865,19 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -843,33 +885,33 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -878,56 +920,56 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -935,41 +977,43 @@
         <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20"/>
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -977,45 +1021,215 @@
         <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E22"/>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
